--- a/dqe - avenant-1.xlsx
+++ b/dqe - avenant-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Cosider_Project_GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04344B51-0AC3-465D-A8CC-C779D1B4A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C299D3B9-A9BE-41E2-924F-9CA493BD6819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
-  <si>
-    <t>pole</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>code_tache</t>
   </si>
@@ -46,27 +40,15 @@
     <t>unite</t>
   </si>
   <si>
-    <t>G128</t>
-  </si>
-  <si>
-    <t>209P</t>
-  </si>
-  <si>
     <t>Terrassemennementnt de terrain; ouverture de fouilles en tranchée,remblais des vides et evacuation à le DP y compris le foisonnement</t>
   </si>
   <si>
-    <t>KDA</t>
-  </si>
-  <si>
     <t>Réalisation de linteaux en béton légérement armé</t>
   </si>
   <si>
     <t>Fourniture et pose de claustra en terre cuite dim : 0,30x0,30</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Enduit en  ciment int +ext</t>
   </si>
   <si>
@@ -82,13 +64,7 @@
     <t>F/P de tuile tyrolienne ( coté extérieure)</t>
   </si>
   <si>
-    <t>KG</t>
-  </si>
-  <si>
     <t>Peinture vinylique ( coté interieure)</t>
-  </si>
-  <si>
-    <t>ML</t>
   </si>
   <si>
     <t xml:space="preserve"> des herses ( forme Y) en corniére 50</t>
@@ -510,18 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D18"/>
+      <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,460 +516,351 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" s="4">
+        <v>950</v>
+      </c>
+      <c r="E2" s="1">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>35500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>31000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>35500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1320</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1380</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>35500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
-        <v>950</v>
-      </c>
-      <c r="G2" s="1">
-        <v>172</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>910</v>
+      </c>
+      <c r="E10" s="1">
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8800</v>
-      </c>
-      <c r="G3" s="1">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D11" s="4">
+        <v>580</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4455</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1750</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4">
-        <v>35500</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D13" s="5">
+        <v>1750</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5">
-        <v>31000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4">
-        <v>35500</v>
-      </c>
-      <c r="G6" s="1">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1320</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1380</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5">
-        <v>35500</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6">
-        <v>9800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D14" s="5">
+        <v>1750</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
-        <v>910</v>
-      </c>
-      <c r="G10" s="1">
-        <v>190</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D15" s="4">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1260</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>210</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4">
-        <v>580</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4455</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1750</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-1342</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5">
-        <v>1750</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-200</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1750</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-200</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1400</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1260</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4">
-        <v>210</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1700</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1100</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-100</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D18" s="5">
         <v>365</v>
       </c>
-      <c r="G18" s="2">
+      <c r="E18" s="2">
         <v>-1800</v>
       </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H1 A2:B18 H2:H18" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>